--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/____表演编辑说明.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/____表演编辑说明.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17265" windowHeight="8745"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="AVG指令文档" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AVG指令文档!$A$1:$E$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AVG指令文档!$A$1:$E$94</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -1475,6 +1475,15 @@
   <si>
     <t>子任务完成</t>
   </si>
+  <si>
+    <t>打开小剧场插画</t>
+  </si>
+  <si>
+    <t>图片名</t>
+  </si>
+  <si>
+    <t>关闭小剧场插画</t>
+  </si>
 </sst>
 </file>
 
@@ -1486,7 +1495,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1692,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1697,18 +1713,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1735,7 +1751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399609363078707"/>
+        <fgColor theme="3" tint="0.399578844569231"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,37 +1763,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799676503799554"/>
+        <fgColor theme="6" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799676503799554"/>
+        <fgColor theme="4" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799676503799554"/>
+        <fgColor theme="5" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799676503799554"/>
+        <fgColor theme="8" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799676503799554"/>
+        <fgColor theme="9" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399700918607135"/>
+        <fgColor theme="6" tint="0.399670400097659"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,7 +1817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
+        <fgColor theme="5" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,7 +1967,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2301,35 +2329,35 @@
     <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2648,7 +2676,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3094,12 +3121,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3300,7 +3327,7 @@
     </row>
     <row r="9" ht="49.5" spans="1:10">
       <c r="A9" s="15">
-        <f t="shared" ref="A9:A18" si="0">ROW()-3</f>
+        <f t="shared" ref="A9:A17" si="0">ROW()-3</f>
         <v>6</v>
       </c>
       <c r="C9" s="22"/>
@@ -4834,58 +4861,94 @@
       <c r="H88" s="99"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="C89" s="99"/>
+      <c r="D89" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="100" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="99"/>
+    </row>
+    <row r="90" ht="33" spans="1:8">
       <c r="A90" s="1">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="C90" s="99"/>
+      <c r="D90" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="100" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="91" ht="33" spans="1:7">
+      <c r="F90" s="99"/>
+      <c r="G90" s="99"/>
+      <c r="H90" s="99"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="D91" s="106" t="s">
+      <c r="C91" s="99"/>
+      <c r="D91" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="E91" s="106"/>
-      <c r="F91" s="106" t="s">
+      <c r="E91" s="99"/>
+      <c r="F91" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="99" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="92" ht="33" spans="1:5">
+      <c r="H91" s="99"/>
+    </row>
+    <row r="92" ht="33" spans="1:8">
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="C92" s="99"/>
+      <c r="D92" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E92" s="100" t="s">
         <v>211</v>
       </c>
+      <c r="F92" s="99"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="99"/>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="C93" s="99"/>
+      <c r="D93" s="99" t="s">
+        <v>271</v>
+      </c>
+      <c r="E93" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="99"/>
+    </row>
+    <row r="94" spans="3:8">
+      <c r="C94" s="99"/>
+      <c r="D94" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
+      <c r="H94" s="99"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E92">
+  <autoFilter ref="A1:E94">
     <extLst/>
   </autoFilter>
   <mergeCells count="10">

--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/____表演编辑说明.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/____表演编辑说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="24225" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="AVG指令文档" sheetId="9" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="276">
   <si>
     <t>ID</t>
   </si>
@@ -998,7 +998,13 @@
     </r>
   </si>
   <si>
-    <t>扭曲、变亮、旧电视 此处可以填参数//todo</t>
+    <t>开始参数：扭曲、变亮、旧电视 此处可以填参数//todo
+【变灰】饱和度;颜色r,颜色g,颜色b,颜色a,强度,平滑                    0;1,1,1,1;0.45;0.35</t>
+  </si>
+  <si>
+    <t>结束参数
+【变灰】饱和度;颜色r,颜色g,颜色b,颜色a,强度,平滑
+-50;0,0,0,1;0.45;0.35</t>
   </si>
   <si>
     <t>画面特效移除</t>
@@ -1351,6 +1357,10 @@
   <si>
     <t>1
 【关卡ID】</t>
+  </si>
+  <si>
+    <t>如果在迷宫房间内通过avg进入战斗
+【迷宫事件id】</t>
   </si>
   <si>
     <t>备注：战斗完成后触发avg由场景内的【start trigger】控制，在【start trigger】增加关于关于两个trriger，触发时机为进入L1start时，触发条件为战斗胜利/失败，触发行为为播放avg，在对应位置填上avg的名称即可。</t>
@@ -1545,6 +1555,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1692,13 +1708,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1724,7 +1733,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1782,6 +1791,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799645985290078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1967,19 +1982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2008,7 +2011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2065,6 +2068,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2209,10 +2227,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2221,36 +2239,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2260,104 +2275,107 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2529,6 +2547,9 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2541,48 +2562,24 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2598,16 +2595,19 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2619,61 +2619,82 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3124,9 +3145,9 @@
   <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3741,7 +3762,7 @@
         <v>98</v>
       </c>
       <c r="H28" s="38"/>
-      <c r="I28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" customFormat="1" ht="33" spans="1:9">
       <c r="A29" s="15">
@@ -3759,7 +3780,7 @@
       <c r="F29" s="41"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" ht="132" spans="1:8">
       <c r="A30" s="15">
@@ -4124,7 +4145,12 @@
       <c r="F48" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="G48" s="52"/>
+      <c r="G48" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="57" t="b">
+        <v>1</v>
+      </c>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
@@ -4134,7 +4160,7 @@
       </c>
       <c r="C49" s="53"/>
       <c r="D49" s="51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E49" s="49"/>
       <c r="F49" s="49"/>
@@ -4148,15 +4174,15 @@
       </c>
       <c r="C50" s="53"/>
       <c r="D50" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="E50" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="G50" s="57"/>
+      <c r="F50" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="58"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" ht="49.5" spans="1:10">
@@ -4165,20 +4191,20 @@
         <v>48</v>
       </c>
       <c r="C51" s="53"/>
-      <c r="D51" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="58" t="s">
+      <c r="D51" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F51" s="58" t="s">
+      <c r="E51" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="G51" s="57" t="s">
+      <c r="F51" s="59" t="s">
         <v>161</v>
       </c>
+      <c r="G51" s="58" t="s">
+        <v>162</v>
+      </c>
       <c r="H51" s="50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J51" s="4"/>
     </row>
@@ -4188,12 +4214,12 @@
         <v>49</v>
       </c>
       <c r="C52" s="53"/>
-      <c r="D52" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="57"/>
+      <c r="D52" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="58"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" ht="49.5" spans="1:10">
@@ -4202,15 +4228,15 @@
         <v>50</v>
       </c>
       <c r="C53" s="53"/>
-      <c r="D53" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58" t="s">
+      <c r="D53" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="G53" s="58" t="s">
+      <c r="E53" s="59"/>
+      <c r="F53" s="59" t="s">
         <v>166</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>167</v>
       </c>
       <c r="J53" s="4"/>
     </row>
@@ -4220,16 +4246,16 @@
         <v>51</v>
       </c>
       <c r="C54" s="53"/>
-      <c r="D54" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58" t="s">
+      <c r="D54" s="60" t="s">
         <v>168</v>
       </c>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59" t="s">
+        <v>169</v>
+      </c>
       <c r="H54" s="50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J54" s="4"/>
     </row>
@@ -4239,13 +4265,13 @@
         <v>52</v>
       </c>
       <c r="C55" s="53"/>
-      <c r="D55" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58" t="s">
+      <c r="D55" s="60" t="s">
         <v>171</v>
+      </c>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59" t="s">
+        <v>172</v>
       </c>
       <c r="J55" s="4"/>
     </row>
@@ -4254,23 +4280,23 @@
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="C56" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="D56" s="62" t="s">
+      <c r="C56" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="63" t="s">
+      <c r="D56" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="E56" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="G56" s="64" t="s">
+      <c r="F56" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="H56" s="64" t="s">
+      <c r="G56" s="65" t="s">
         <v>177</v>
+      </c>
+      <c r="H56" s="65" t="s">
+        <v>178</v>
       </c>
       <c r="J56" s="4"/>
     </row>
@@ -4279,21 +4305,21 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" s="63" t="s">
+      <c r="C57" s="62"/>
+      <c r="D57" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="F57" s="63" t="s">
+      <c r="E57" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="G57" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="H57" s="64" t="s">
+      <c r="F57" s="64" t="s">
         <v>181</v>
+      </c>
+      <c r="G57" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="65" t="s">
+        <v>182</v>
       </c>
       <c r="J57" s="4"/>
     </row>
@@ -4303,22 +4329,22 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="63" t="s">
+      <c r="C58" s="66"/>
+      <c r="D58" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="F58" s="66" t="s">
+      <c r="E58" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="66" t="s">
+      <c r="G58" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="66" t="s">
+      <c r="H58" s="67" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="4"/>
@@ -4329,17 +4355,17 @@
         <v>56</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="67" t="s">
+      <c r="C59" s="66"/>
+      <c r="D59" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F59" s="67" t="s">
+      <c r="E59" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="G59" s="61"/>
+      <c r="F59" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" s="62"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" ht="49.5" spans="1:7">
@@ -4347,65 +4373,65 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="C60" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="D60" s="68" t="s">
+      <c r="C60" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="E60" s="69" t="s">
+      <c r="D60" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="E60" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="71"/>
+      <c r="G60" s="72"/>
     </row>
     <row r="61" ht="49.5" spans="1:7">
       <c r="A61" s="15">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="E61" s="69" t="s">
+      <c r="C61" s="69"/>
+      <c r="D61" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="E61" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="71"/>
+      <c r="G61" s="72"/>
     </row>
     <row r="62" ht="115.5" spans="1:7">
       <c r="A62" s="15">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="69" t="s">
+      <c r="C62" s="69"/>
+      <c r="D62" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="F62" s="70" t="s">
+      <c r="E62" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="G62" s="70" t="s">
+      <c r="F62" s="71" t="s">
         <v>196</v>
+      </c>
+      <c r="G62" s="71" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="63" ht="115.5" spans="1:7">
       <c r="A63" s="15"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="69" t="s">
+      <c r="C63" s="69"/>
+      <c r="D63" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="G63" s="69" t="s">
+      <c r="F63" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="70" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4414,32 +4440,32 @@
         <f t="shared" ref="A64:A76" si="5">ROW()-3</f>
         <v>61</v>
       </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="E64" s="69" t="s">
+      <c r="C64" s="69"/>
+      <c r="D64" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
+      <c r="E64" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
     </row>
     <row r="65" ht="33" spans="1:7">
       <c r="A65" s="15">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="C65" s="73"/>
-      <c r="D65" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" s="69" t="s">
+      <c r="C65" s="74"/>
+      <c r="D65" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="F65" s="69" t="s">
+      <c r="E65" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="G65" s="69" t="s">
+      <c r="F65" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="G65" s="70" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4448,17 +4474,17 @@
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="E66" s="69" t="s">
+      <c r="C66" s="74"/>
+      <c r="D66" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="69" t="s">
+      <c r="F66" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="69" t="s">
+      <c r="G66" s="70" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4467,21 +4493,21 @@
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="E67" s="74" t="s">
+      <c r="C67" s="74"/>
+      <c r="D67" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="75" t="s">
+      <c r="E67" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="75" t="s">
+      <c r="F67" s="76" t="s">
         <v>208</v>
       </c>
+      <c r="G67" s="76" t="s">
+        <v>209</v>
+      </c>
       <c r="I67" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" ht="33" spans="1:9">
@@ -4489,19 +4515,19 @@
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73" t="s">
+      <c r="C68" s="74"/>
+      <c r="D68" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="G68" s="76"/>
+      <c r="I68" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="E68" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="F68" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="G68" s="75"/>
-      <c r="I68" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="69" ht="33" spans="1:9">
@@ -4509,19 +4535,19 @@
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="E69" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="F69" s="75" t="s">
+      <c r="C69" s="74"/>
+      <c r="D69" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="75"/>
+      <c r="E69" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="G69" s="76"/>
       <c r="I69" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" ht="49.5" spans="1:8">
@@ -4529,21 +4555,21 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="C70" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="D70" s="76" t="s">
+      <c r="C70" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="E70" s="77" t="s">
+      <c r="D70" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="F70" s="78" t="s">
+      <c r="E70" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="G70" s="79"/>
-      <c r="H70" s="80" t="s">
+      <c r="F70" s="79" t="s">
         <v>219</v>
+      </c>
+      <c r="G70" s="80"/>
+      <c r="H70" s="81" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="71" ht="33" spans="1:8">
@@ -4551,21 +4577,21 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="E71" s="77" t="s">
+      <c r="C71" s="77"/>
+      <c r="D71" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="F71" s="78" t="s">
+      <c r="E71" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="G71" s="78" t="s">
+      <c r="F71" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="H71" s="80" t="s">
+      <c r="G71" s="79" t="s">
         <v>224</v>
+      </c>
+      <c r="H71" s="81" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="72" ht="33" spans="1:8">
@@ -4573,105 +4599,107 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="E72" s="77" t="s">
+      <c r="C72" s="77"/>
+      <c r="D72" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="F72" s="78" t="s">
+      <c r="E72" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="G72" s="78"/>
-      <c r="H72" s="81"/>
+      <c r="F72" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="G72" s="79"/>
+      <c r="H72" s="82"/>
     </row>
     <row r="73" ht="49.5" spans="1:8">
       <c r="A73" s="15">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="C73" s="82" t="s">
-        <v>228</v>
-      </c>
-      <c r="D73" s="83" t="s">
+      <c r="C73" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="84" t="s">
+      <c r="D73" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="F73" s="85" t="s">
+      <c r="E73" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="G73" s="86"/>
-      <c r="H73" s="87"/>
+      <c r="F73" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="G73" s="87"/>
+      <c r="H73" s="88"/>
     </row>
     <row r="74" ht="33" spans="1:8">
       <c r="A74" s="15">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="C74" s="88"/>
-      <c r="D74" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="E74" s="84" t="s">
+      <c r="C74" s="89"/>
+      <c r="D74" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89"/>
+      <c r="E74" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
     </row>
     <row r="75" ht="57" customHeight="1" spans="1:8">
       <c r="A75" s="15">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="C75" s="90"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="93"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" s="93"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="94"/>
     </row>
     <row r="76" ht="57" customHeight="1" spans="1:8">
       <c r="A76" s="15">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="C76" s="90"/>
-      <c r="D76" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="E76" s="84" t="s">
-        <v>236</v>
-      </c>
-      <c r="F76" s="84" t="s">
+      <c r="C76" s="91"/>
+      <c r="D76" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="G76" s="85"/>
-      <c r="H76" s="93"/>
+      <c r="E76" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="G76" s="86"/>
+      <c r="H76" s="94"/>
     </row>
     <row r="77" ht="57" customHeight="1" spans="1:8">
       <c r="A77" s="15">
         <v>66</v>
       </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="94" t="s">
-        <v>238</v>
-      </c>
-      <c r="E77" s="84" t="s">
+      <c r="C77" s="89"/>
+      <c r="D77" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="E77" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="G77" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="H77" s="93" t="s">
+      <c r="F77" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="G77" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="H77" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4680,115 +4708,115 @@
         <f t="shared" ref="A78:A90" si="6">ROW()-3</f>
         <v>75</v>
       </c>
-      <c r="C78" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="D78" s="96" t="s">
-        <v>242</v>
-      </c>
-      <c r="E78" s="97" t="s">
+      <c r="C78" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="97" t="s">
+      <c r="D78" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
+      <c r="E78" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="F78" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="G78" s="98"/>
+      <c r="H78" s="98"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="C79" s="98"/>
-      <c r="D79" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="100"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="C80" s="98"/>
-      <c r="D80" s="99" t="s">
-        <v>246</v>
-      </c>
-      <c r="E80" s="99" t="s">
-        <v>247</v>
-      </c>
-      <c r="F80" s="99"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="99"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="100" t="s">
+        <v>249</v>
+      </c>
+      <c r="F80" s="100"/>
+      <c r="G80" s="100"/>
+      <c r="H80" s="100"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="C81" s="98"/>
-      <c r="D81" s="99" t="s">
-        <v>248</v>
-      </c>
-      <c r="E81" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="F81" s="99"/>
-      <c r="G81" s="99"/>
-      <c r="H81" s="99"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" s="100" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81" s="100"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="100"/>
     </row>
     <row r="82" ht="66" spans="1:8">
       <c r="A82" s="1">
         <v>68</v>
       </c>
-      <c r="C82" s="98"/>
-      <c r="D82" s="99" t="s">
-        <v>250</v>
-      </c>
-      <c r="E82" s="100" t="s">
-        <v>251</v>
-      </c>
-      <c r="F82" s="99"/>
-      <c r="G82" s="99"/>
-      <c r="H82" s="99"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="100" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="F82" s="100"/>
+      <c r="G82" s="100"/>
+      <c r="H82" s="100"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="C83" s="101"/>
-      <c r="D83" s="99" t="s">
-        <v>252</v>
-      </c>
-      <c r="E83" s="99"/>
-      <c r="F83" s="99" t="s">
-        <v>253</v>
-      </c>
-      <c r="G83" s="99"/>
-      <c r="H83" s="99"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="100" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
     </row>
     <row r="84" ht="94.5" spans="1:9">
       <c r="A84" s="1">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="C84" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="D84" s="103" t="s">
-        <v>255</v>
-      </c>
-      <c r="E84" s="104" t="s">
+      <c r="C84" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="F84" s="105"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="105"/>
+      <c r="D84" s="104" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="F84" s="106"/>
+      <c r="G84" s="106"/>
+      <c r="H84" s="106"/>
       <c r="I84"/>
     </row>
     <row r="85" spans="1:9">
@@ -4796,16 +4824,16 @@
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="C85" s="99" t="s">
-        <v>257</v>
-      </c>
-      <c r="D85" s="99" t="s">
-        <v>257</v>
-      </c>
-      <c r="E85" s="99"/>
-      <c r="F85" s="99"/>
-      <c r="G85" s="99"/>
-      <c r="H85" s="99"/>
+      <c r="C85" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
       <c r="I85"/>
     </row>
     <row r="86" ht="33" spans="1:9">
@@ -4813,18 +4841,18 @@
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="C86" s="99"/>
-      <c r="D86" s="99" t="s">
-        <v>258</v>
-      </c>
-      <c r="E86" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="F86" s="99" t="s">
+      <c r="C86" s="100"/>
+      <c r="D86" s="100" t="s">
+        <v>260</v>
+      </c>
+      <c r="E86" s="101" t="s">
+        <v>261</v>
+      </c>
+      <c r="F86" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="G86" s="99"/>
-      <c r="H86" s="99"/>
+      <c r="G86" s="100"/>
+      <c r="H86" s="100"/>
       <c r="I86"/>
     </row>
     <row r="87" ht="33" spans="1:9">
@@ -4832,18 +4860,18 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="C87" s="99"/>
-      <c r="D87" s="99" t="s">
-        <v>260</v>
-      </c>
-      <c r="E87" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="F87" s="99" t="s">
+      <c r="C87" s="100"/>
+      <c r="D87" s="100" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="F87" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="G87" s="99"/>
-      <c r="H87" s="99"/>
+      <c r="G87" s="100"/>
+      <c r="H87" s="100"/>
       <c r="I87"/>
     </row>
     <row r="88" spans="1:9">
@@ -4851,14 +4879,14 @@
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="C88" s="99"/>
-      <c r="D88" s="99" t="s">
-        <v>262</v>
-      </c>
-      <c r="E88" s="99"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="99"/>
-      <c r="H88" s="99"/>
+      <c r="C88" s="100"/>
+      <c r="D88" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88" s="100"/>
+      <c r="F88" s="100"/>
+      <c r="G88" s="100"/>
+      <c r="H88" s="100"/>
       <c r="I88"/>
     </row>
     <row r="89" spans="1:8">
@@ -4866,86 +4894,86 @@
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99" t="s">
-        <v>263</v>
-      </c>
-      <c r="E89" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="F89" s="99"/>
-      <c r="G89" s="99"/>
-      <c r="H89" s="99"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="100"/>
     </row>
     <row r="90" ht="33" spans="1:8">
       <c r="A90" s="1">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="C90" s="99"/>
-      <c r="D90" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="E90" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="F90" s="99"/>
-      <c r="G90" s="99"/>
-      <c r="H90" s="99"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="100" t="s">
+        <v>267</v>
+      </c>
+      <c r="E90" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="F90" s="100"/>
+      <c r="G90" s="100"/>
+      <c r="H90" s="100"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="C91" s="99"/>
-      <c r="D91" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="G91" s="99" t="s">
+      <c r="C91" s="100"/>
+      <c r="D91" s="100" t="s">
         <v>269</v>
       </c>
-      <c r="H91" s="99"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="G91" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="H91" s="100"/>
     </row>
     <row r="92" ht="33" spans="1:8">
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="C92" s="99"/>
-      <c r="D92" s="99" t="s">
-        <v>270</v>
-      </c>
-      <c r="E92" s="100" t="s">
-        <v>211</v>
-      </c>
-      <c r="F92" s="99"/>
-      <c r="G92" s="99"/>
-      <c r="H92" s="99"/>
+      <c r="C92" s="100"/>
+      <c r="D92" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="E92" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="F92" s="100"/>
+      <c r="G92" s="100"/>
+      <c r="H92" s="100"/>
     </row>
     <row r="93" spans="3:8">
-      <c r="C93" s="99"/>
-      <c r="D93" s="99" t="s">
-        <v>271</v>
-      </c>
-      <c r="E93" s="100" t="s">
-        <v>272</v>
-      </c>
-      <c r="F93" s="99"/>
-      <c r="G93" s="99"/>
-      <c r="H93" s="99"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="F93" s="100"/>
+      <c r="G93" s="100"/>
+      <c r="H93" s="100"/>
     </row>
     <row r="94" spans="3:8">
-      <c r="C94" s="99"/>
-      <c r="D94" s="99" t="s">
-        <v>273</v>
-      </c>
-      <c r="E94" s="99"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="99"/>
-      <c r="H94" s="99"/>
+      <c r="C94" s="100"/>
+      <c r="D94" s="100" t="s">
+        <v>275</v>
+      </c>
+      <c r="E94" s="100"/>
+      <c r="F94" s="100"/>
+      <c r="G94" s="100"/>
+      <c r="H94" s="100"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E94">

--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/____表演编辑说明.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/____表演编辑说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="AVG指令文档" sheetId="9" r:id="rId1"/>
@@ -511,10 +511,11 @@
   </si>
   <si>
     <t>type=2,headIcon=true,offx=1.5,offy=-0.4,bubbleStyle=2,bubbleFlipX=1
-recall=1,scale=1.3,rotate=30
+recall=1,scale=1.3,rotate=30,isTitle=True
 【recall代表文字居中，默认是左对齐】
 【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】
-【headIcon=true或者false，表示当且仅当“type=4”时,通讯模式对话框显示AVG角色表中配置的头像图片，默认未false】</t>
+【headIcon=true或者false，表示当且仅当“type=4”时,通讯模式对话框显示AVG角色表中配置的头像图片，默认未false】
+【isTitle=True或者false，表示当前句子为交代时间地点的标题台词，为了适配标题台词的打字机音效，特提出该参数。】</t>
   </si>
   <si>
     <t>【talk代表说话的口型，ID在编辑器animator中配置。这个命令跟外部写法“角色说话”不同】
@@ -3145,9 +3146,9 @@
   <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
